--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Opis" sheetId="2" r:id="rId5"/>
     <sheet name="Product Backlog" sheetId="3" r:id="rId6"/>
     <sheet name="Sprint Backlog #1" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint Backlog #2" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -34,13 +35,49 @@
     <t>Tabela 1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Opis</t>
+    </r>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Product Backlog</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Backlog #1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Sprint Backlog #1</t>
+    </r>
+  </si>
+  <si>
     <t>Text Transformer</t>
   </si>
   <si>
     <t>Dla osób pracujących z danymi tekstowymi nasza aplikacja Text Transformer umożliwi transformacje danych tekstowych (np. zmiana wielkości liter, eliminacja duplikatów, itd.). Aplikacja będzie dostępna poprzez GUI a także zdalne API dzięki czemu będzie można ją zintegrować z istniejącymi narzędziami.</t>
-  </si>
-  <si>
-    <t>Product Backlog</t>
   </si>
   <si>
     <t>Element rejestru produktu</t>
@@ -115,7 +152,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="13"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>m.in</t>
@@ -180,7 +217,13 @@
     <t>Do późniejszej negocjacji</t>
   </si>
   <si>
-    <t>Sprint Backlog #1</t>
+    <t>Jako użytkownik mogę dokonać permutacji liter, z których złożone jest słowo</t>
+  </si>
+  <si>
+    <t>Jako użytkownik mogę dokonać szyfrowania z użyciem Szyfru Cezara</t>
+  </si>
+  <si>
+    <t>Jako użytkownik mogę rozszyfrować tekst z użyciem Szyfru Cezara</t>
   </si>
   <si>
     <t>Cel sprintu:</t>
@@ -241,6 +284,24 @@
   </si>
   <si>
     <t>Przygotowanie diagramu UML</t>
+  </si>
+  <si>
+    <t>Przygotowanie testów jednostkowych</t>
+  </si>
+  <si>
+    <t>Dostosowanie klas do poprawnego wzorca projektowego</t>
+  </si>
+  <si>
+    <t>Implementacja funkcjonalności ELIMINATE</t>
+  </si>
+  <si>
+    <t>Implementacja funkcjonalności PERMUTE</t>
+  </si>
+  <si>
+    <t>Implementacja funkcjonalności CEZAR</t>
+  </si>
+  <si>
+    <t>Implementacja funkcjonalności RECEZAR</t>
   </si>
 </sst>
 </file>
@@ -257,20 +318,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="15"/>
@@ -278,15 +328,26 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="18"/>
-      <color indexed="12"/>
+      <color indexed="14"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="14"/>
-      <color indexed="13"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -305,19 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -334,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -344,31 +405,118 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,10 +528,10 @@
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -392,25 +540,25 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -419,13 +567,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -434,10 +582,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
         <color indexed="16"/>
@@ -449,31 +597,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
         <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
         <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,13 +630,13 @@
         <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,123 +646,204 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,12 +862,12 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff2600"/>
       <rgbColor rgb="ffc0504d"/>
       <rgbColor rgb="ff3ca679"/>
@@ -793,9 +1022,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -875,7 +1104,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -903,10 +1132,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1162,9 +1391,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1452,7 +1681,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1480,10 +1709,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1734,80 +1963,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="28" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="17.9" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="D10" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="15.35" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="15.35" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>32</v>
-      </c>
+      <c r="D14" t="s" s="18">
+        <v>10</v>
+      </c>
+      <c r="E14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1818,6 +2111,11 @@
     <hyperlink ref="D12" location="'Product Backlog'!R1C1" tooltip="" display="Product Backlog"/>
     <hyperlink ref="D14" location="'Sprint Backlog #1'!R1C1" tooltip="" display="Sprint Backlog #1"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1829,84 +2127,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="95.5" style="6" customWidth="1"/>
-    <col min="2" max="5" width="10.8516" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="95.5" style="20" customWidth="1"/>
+    <col min="2" max="5" width="10.8516" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" ht="85" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1925,274 +2223,298 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="49.0938" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.6719" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.3516" style="10" customWidth="1"/>
-    <col min="5" max="5" width="64.4141" style="10" customWidth="1"/>
-    <col min="6" max="8" width="10.8516" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="10.8516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="159.742" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.6719" style="24" customWidth="1"/>
+    <col min="4" max="4" width="25.3516" style="24" customWidth="1"/>
+    <col min="5" max="5" width="64.5" style="24" customWidth="1"/>
+    <col min="6" max="8" width="10.8516" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="10.8516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s" s="12">
+      <c r="A1" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>17</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="B2" s="31">
+        <v>15</v>
+      </c>
+      <c r="C2" s="31">
         <v>10</v>
       </c>
-      <c r="C1" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s" s="12">
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="32">
+        <v>19</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" ht="105" customHeight="1">
+      <c r="A3" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="B3" s="31">
         <v>12</v>
       </c>
-      <c r="E1" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B2" s="17">
-        <v>15</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="C3" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="B4" s="31">
         <v>10</v>
       </c>
-      <c r="D2" s="17">
+      <c r="C4" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s" s="32">
+        <v>23</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" ht="45" customHeight="1">
+      <c r="A5" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="B5" s="31">
+        <v>10</v>
+      </c>
+      <c r="C5" s="31">
+        <v>3</v>
+      </c>
+      <c r="D5" s="31">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" ht="105" customHeight="1">
-      <c r="A3" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="B3" s="17">
-        <v>12</v>
-      </c>
-      <c r="C3" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="E5" t="s" s="32">
+        <v>25</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" ht="75" customHeight="1">
+      <c r="A6" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="B6" s="31">
+        <v>10</v>
+      </c>
+      <c r="C6" s="31">
+        <v>3</v>
+      </c>
+      <c r="D6" s="31">
         <v>0.5</v>
       </c>
-      <c r="E3" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="E6" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" ht="90" customHeight="1">
+      <c r="A7" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="B7" s="31">
         <v>10</v>
       </c>
-      <c r="C4" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C7" s="31">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31">
         <v>0.5</v>
       </c>
-      <c r="E4" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="E7" t="s" s="32">
+        <v>29</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="s" s="32">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" ht="105" customHeight="1">
+      <c r="A9" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="B9" s="31">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31">
+        <v>4</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" t="s" s="37">
+        <v>36</v>
+      </c>
+      <c r="B11" s="38">
         <v>10</v>
       </c>
-      <c r="C5" s="17">
-        <v>3</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C11" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" t="s" s="37">
+        <v>37</v>
+      </c>
+      <c r="B12" s="38">
+        <v>10</v>
+      </c>
+      <c r="C12" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="38">
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" ht="75" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="E12" s="39"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" ht="15.35" customHeight="1">
+      <c r="A13" t="s" s="37">
+        <v>38</v>
+      </c>
+      <c r="B13" s="38">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
-        <v>3</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" ht="90" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17">
-        <v>10</v>
-      </c>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E7" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" ht="45" customHeight="1">
-      <c r="A8" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E8" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" ht="105" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="C13" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="38">
         <v>1</v>
       </c>
-      <c r="C9" s="17">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" t="s" s="23">
-        <v>31</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" location="" tooltip="" display="m.in"/>
+    <hyperlink ref="E6" r:id="rId1" location="" tooltip="" display="• Rozwinięcie skrótu: na przykład -&gt; np.&#10;• Rozwinięcie skrótu: między innymi -&gt; m.in.&#10;• Rozwinięcie skrótu: i tym podobne -&gt; itd.&#10;• Działa niezależnie od wielkości liter"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2210,388 +2532,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.1719" style="28" customWidth="1"/>
-    <col min="2" max="2" width="48.8516" style="28" customWidth="1"/>
-    <col min="3" max="3" width="33" style="28" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="28" customWidth="1"/>
+    <col min="1" max="1" width="45.1719" style="43" customWidth="1"/>
+    <col min="2" max="2" width="48.8516" style="43" customWidth="1"/>
+    <col min="3" max="3" width="33" style="43" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" t="s" s="46">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="30">
+        <v>40</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="33">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="33">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="8"/>
+      <c r="A4" t="s" s="47">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="47">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="48">
+        <v>15</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="36">
+      <c r="A5" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="50">
         <v>10</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="A6" s="45"/>
+      <c r="B6" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="C6" s="50">
         <v>1</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="C7" s="36">
+      <c r="A7" s="45"/>
+      <c r="B7" t="s" s="30">
+        <v>43</v>
+      </c>
+      <c r="C7" s="50">
         <v>1</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" t="s" s="16">
-        <v>38</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="A8" s="45"/>
+      <c r="B8" t="s" s="30">
+        <v>44</v>
+      </c>
+      <c r="C8" s="50">
         <v>1</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s" s="16">
-        <v>39</v>
-      </c>
-      <c r="C9" s="36">
+      <c r="A9" s="45"/>
+      <c r="B9" t="s" s="30">
+        <v>45</v>
+      </c>
+      <c r="C9" s="50">
         <v>5</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="A10" s="45"/>
+      <c r="B10" t="s" s="30">
+        <v>46</v>
+      </c>
+      <c r="C10" s="50">
         <v>2</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="36">
+      <c r="A11" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="50">
         <v>3.5</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" t="s" s="16">
-        <v>41</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="A12" s="45"/>
+      <c r="B12" t="s" s="30">
+        <v>47</v>
+      </c>
+      <c r="C12" s="50">
         <v>1</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" t="s" s="16">
-        <v>42</v>
-      </c>
-      <c r="C13" s="36">
+      <c r="A13" s="45"/>
+      <c r="B13" t="s" s="30">
+        <v>48</v>
+      </c>
+      <c r="C13" s="50">
         <v>1</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" t="s" s="16">
-        <v>43</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="A14" s="45"/>
+      <c r="B14" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="C14" s="50">
         <v>1</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="A15" s="45"/>
+      <c r="B15" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C15" s="31">
         <v>0.5</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="16">
+      <c r="A16" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="31">
+        <v>2</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" ht="15.35" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" t="s" s="30">
+        <v>51</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" ht="15.35" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" ht="15.35" customHeight="1">
+      <c r="A19" t="s" s="30">
         <v>24</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="17">
+      <c r="B19" s="44"/>
+      <c r="C19" s="31">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="15.35" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" t="s" s="30">
+        <v>52</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" ht="15.35" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" t="s" s="30">
+        <v>53</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" ht="15.35" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" ht="15.35" customHeight="1">
+      <c r="A23" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="31">
+        <v>3</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" ht="15.35" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" t="s" s="30">
+        <v>54</v>
+      </c>
+      <c r="C24" s="31">
         <v>2</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" ht="15.35" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" ht="15.35" customHeight="1">
+      <c r="A26" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" ht="15.35" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" t="s" s="30">
+        <v>55</v>
+      </c>
+      <c r="C27" s="31">
+        <v>2</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" ht="15.35" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" ht="15.35" customHeight="1">
+      <c r="A29" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="31">
+        <v>2</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" ht="15.35" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" t="s" s="30">
+        <v>56</v>
+      </c>
+      <c r="C30" s="31">
         <v>1.5</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" ht="15.35" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C31" s="31">
         <v>0.5</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="17">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" t="s" s="16">
-        <v>46</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="17">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" t="s" s="16">
-        <v>48</v>
-      </c>
-      <c r="C24" s="17">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="C25" s="17">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" t="s" s="16">
-        <v>49</v>
-      </c>
-      <c r="C27" s="17">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="17">
-        <v>2</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="C30" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" t="s" s="16">
-        <v>51</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="A32" t="s" s="30">
+        <v>57</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" t="s" s="16">
-        <v>52</v>
-      </c>
-      <c r="C33" s="17">
+      <c r="A33" s="45"/>
+      <c r="B33" t="s" s="30">
+        <v>58</v>
+      </c>
+      <c r="C33" s="31">
         <v>6.5</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2610,4 +2932,348 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="45.1719" style="53" customWidth="1"/>
+    <col min="2" max="2" width="48.8516" style="53" customWidth="1"/>
+    <col min="3" max="3" width="33" style="53" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" t="s" s="46">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="30">
+        <v>40</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" t="s" s="47">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="47">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="48">
+        <v>15</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" t="s" s="30">
+        <v>57</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="C6" s="50">
+        <v>15</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="C7" s="50">
+        <v>6</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="C9" s="50">
+        <v>3</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s" s="33">
+        <v>50</v>
+      </c>
+      <c r="C10" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" t="s" s="37">
+        <v>36</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" t="s" s="56">
+        <v>62</v>
+      </c>
+      <c r="C12" s="50">
+        <v>3</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" ht="15.35" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" t="s" s="33">
+        <v>50</v>
+      </c>
+      <c r="C13" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" ht="15.35" customHeight="1">
+      <c r="A14" t="s" s="37">
+        <v>37</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="15.35" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="C15" s="31">
+        <v>3</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" ht="15.35" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s" s="33">
+        <v>50</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" ht="15.35" customHeight="1">
+      <c r="A17" t="s" s="37">
+        <v>38</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" ht="15.35" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" t="s" s="30">
+        <v>64</v>
+      </c>
+      <c r="C18" s="31">
+        <v>3</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" ht="15.35" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="15.35" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" ht="15.35" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" ht="15.35" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" ht="15.35" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" ht="15.35" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" ht="15.35" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" ht="15.35" customHeight="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" ht="15.35" customHeight="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" ht="15.35" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" ht="15.35" customHeight="1">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" ht="15.35" customHeight="1">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" ht="15.35" customHeight="1">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" ht="15.35" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" ht="15.35" customHeight="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" ht="15.35" customHeight="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" ht="15.35" customHeight="1">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" ht="15.35" customHeight="1">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Ten dokument został wyeksportowany z aplikacji Numbers. Każda z tabel została skonwertowana do arkusza aplikacji Excel. Pozostałe obiekty na każdym z arkuszy Numbers zostały umieszczone na osobnych arkuszach. Pamiętaj, że działanie formuł w aplikacji Excel może być inne.</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Przygotowanie diagramu UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodanie testów jednostkowych oraz implementacja dodatkowych funkcjonalności </t>
   </si>
   <si>
     <t>Przygotowanie testów jednostkowych</t>
@@ -2961,7 +2964,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="22"/>
@@ -2999,7 +3002,7 @@
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" s="45"/>
       <c r="B6" t="s" s="30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="50">
         <v>15</v>
@@ -3010,7 +3013,7 @@
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" s="45"/>
       <c r="B7" t="s" s="30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="50">
         <v>6</v>
@@ -3030,7 +3033,7 @@
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="45"/>
       <c r="B9" t="s" s="30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="50">
         <v>3</v>
@@ -3061,7 +3064,7 @@
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" s="42"/>
       <c r="B12" t="s" s="56">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="50">
         <v>3</v>
@@ -3092,7 +3095,7 @@
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" t="s" s="56">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="31">
         <v>3</v>
@@ -3123,7 +3126,7 @@
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" t="s" s="30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="31">
         <v>3</v>
